--- a/ML Files/ML Files/Regression/Linear Regression with OLS.xlsx
+++ b/ML Files/ML Files/Regression/Linear Regression with OLS.xlsx
@@ -1,32 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Parinita_itvedant\ML\Supervised\3.Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FACULTY-CR2\Documents\ParinitaJain\7_9_2025\ML Files\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45756F52-ABA3-4606-A9CA-0C252B383FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27E8DDE-C9CF-420A-B748-EF5011F62802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>X</t>
   </si>
@@ -146,6 +160,12 @@
   </si>
   <si>
     <t>sum(Y-Ypred)^2/sum(Y-Ymean)^2</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -228,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -246,13 +266,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -269,6 +290,1996 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1168-409C-8AAD-FAF8E8DEB8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OLS!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OLS!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1168-409C-8AAD-FAF8E8DEB8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OLS!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OLS!$B$9:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1168-409C-8AAD-FAF8E8DEB8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="793598943"/>
+        <c:axId val="793599775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="793598943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="793599775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="793599775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="793598943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDD3-4C59-9A9B-E5C25B242434}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="792918623"/>
+        <c:axId val="792925279"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="792918623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792925279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="792925279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792918623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4404BE0A-80ED-4794-8B9E-F1D483D7F486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B54E0C5-93B5-4BB4-AA4D-22335D7379A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,61 +2547,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="5" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="5" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +2627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -648,7 +2659,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -672,7 +2683,7 @@
         <v>-0.39999999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -696,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -720,7 +2731,7 @@
         <v>0.39999999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -744,7 +2755,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
         <f>SUM(E9:E13)</f>
         <v>10</v>
@@ -754,12 +2765,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
@@ -767,7 +2778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f>F14/E14</f>
         <v>0.4</v>
@@ -777,7 +2788,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -785,7 +2796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +2804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -802,7 +2813,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -811,7 +2822,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -820,7 +2831,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -829,7 +2840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -838,49 +2849,49 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>0</v>
       </c>
@@ -909,7 +2920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -944,7 +2955,7 @@
         <v>0.84852813742385702</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -967,7 +2978,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -990,7 +3001,7 @@
         <v>2.5600000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -1013,7 +3024,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -1035,14 +3046,14 @@
         <f t="shared" si="7"/>
         <v>1.9599999999999997</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D43" s="1">
         <f>SUM(D38:D42)</f>
         <v>3.1999999999999997</v>
@@ -1055,42 +3066,42 @@
         <f>SUM(F38:F42)</f>
         <v>5.2</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="9">
         <f>E43/F43</f>
         <v>0.69230769230769218</v>
       </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
       <c r="J46" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J47" s="1">
         <f>1-H43</f>
         <v>0.30769230769230782</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -1109,12 +3120,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7880A6-2315-4DB0-8768-EF57528CE911}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD572458-F32D-490C-8183-FB46A0A5D681}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C20AC4-AA71-46F5-913A-8375B6417E06}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
